--- a/SchedulingData/dynamic14/pso/scheduling2_3.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling2_3.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>213.6</v>
+        <v>250.1</v>
       </c>
       <c r="D2" t="n">
-        <v>266.3</v>
+        <v>295.96</v>
       </c>
       <c r="E2" t="n">
-        <v>14.56</v>
+        <v>9.204000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -485,22 +485,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>230.9</v>
+        <v>295.96</v>
       </c>
       <c r="D3" t="n">
-        <v>309.4</v>
+        <v>355.92</v>
       </c>
       <c r="E3" t="n">
-        <v>10.2</v>
+        <v>6.828</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -508,203 +508,203 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>226</v>
+        <v>233.62</v>
       </c>
       <c r="D4" t="n">
-        <v>287.3</v>
+        <v>280.22</v>
       </c>
       <c r="E4" t="n">
-        <v>11.92</v>
+        <v>13.588</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>309.4</v>
+        <v>207.62</v>
       </c>
       <c r="D5" t="n">
-        <v>342.84</v>
+        <v>245.32</v>
       </c>
       <c r="E5" t="n">
-        <v>7.496</v>
+        <v>13.668</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>266.3</v>
+        <v>280.22</v>
       </c>
       <c r="D6" t="n">
-        <v>335.98</v>
+        <v>354.92</v>
       </c>
       <c r="E6" t="n">
-        <v>10.192</v>
+        <v>9.208</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>200.7</v>
+        <v>214.32</v>
       </c>
       <c r="D7" t="n">
-        <v>243.34</v>
+        <v>277.22</v>
       </c>
       <c r="E7" t="n">
-        <v>13.376</v>
+        <v>10.968</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>243.34</v>
+        <v>355.92</v>
       </c>
       <c r="D8" t="n">
-        <v>298.76</v>
+        <v>413.96</v>
       </c>
       <c r="E8" t="n">
-        <v>10.464</v>
+        <v>4.124</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>287.3</v>
+        <v>218.64</v>
       </c>
       <c r="D9" t="n">
-        <v>342.9</v>
+        <v>270.96</v>
       </c>
       <c r="E9" t="n">
-        <v>8.960000000000001</v>
+        <v>10.604</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>335.98</v>
+        <v>270.96</v>
       </c>
       <c r="D10" t="n">
-        <v>394.38</v>
+        <v>333.86</v>
       </c>
       <c r="E10" t="n">
-        <v>7.472</v>
+        <v>7.444</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>298.76</v>
+        <v>274.24</v>
       </c>
       <c r="D11" t="n">
-        <v>359.86</v>
+        <v>325.2</v>
       </c>
       <c r="E11" t="n">
-        <v>5.484</v>
+        <v>13.96</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>236</v>
+        <v>325.2</v>
       </c>
       <c r="D12" t="n">
-        <v>293.2</v>
+        <v>395.6</v>
       </c>
       <c r="E12" t="n">
-        <v>12.36</v>
+        <v>9.539999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>293.2</v>
+        <v>245.32</v>
       </c>
       <c r="D13" t="n">
-        <v>345.52</v>
+        <v>291.9</v>
       </c>
       <c r="E13" t="n">
-        <v>7.768</v>
+        <v>10.14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>345.52</v>
+        <v>277.22</v>
       </c>
       <c r="D14" t="n">
-        <v>401.66</v>
+        <v>349.6</v>
       </c>
       <c r="E14" t="n">
-        <v>4.284</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="15">
@@ -713,36 +713,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>203.46</v>
+        <v>354.92</v>
       </c>
       <c r="D15" t="n">
-        <v>269.6</v>
+        <v>417.06</v>
       </c>
       <c r="E15" t="n">
-        <v>16.54</v>
+        <v>6.084</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>342.84</v>
+        <v>333.86</v>
       </c>
       <c r="D16" t="n">
-        <v>401.5</v>
+        <v>369.26</v>
       </c>
       <c r="E16" t="n">
-        <v>4.76</v>
+        <v>5.044</v>
       </c>
     </row>
     <row r="17">
@@ -751,17 +751,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>401.66</v>
+        <v>369.26</v>
       </c>
       <c r="D17" t="n">
-        <v>484.59</v>
+        <v>437.96</v>
       </c>
       <c r="E17" t="n">
-        <v>30</v>
+        <v>0.784</v>
       </c>
     </row>
     <row r="18">
@@ -770,36 +770,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>484.59</v>
+        <v>437.96</v>
       </c>
       <c r="D18" t="n">
-        <v>547.79</v>
+        <v>522.99</v>
       </c>
       <c r="E18" t="n">
-        <v>25.38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>401.5</v>
+        <v>522.99</v>
       </c>
       <c r="D19" t="n">
-        <v>455.92</v>
+        <v>591.33</v>
       </c>
       <c r="E19" t="n">
-        <v>0.448</v>
+        <v>27.296</v>
       </c>
     </row>
     <row r="20">
@@ -808,55 +808,55 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>455.92</v>
+        <v>413.96</v>
       </c>
       <c r="D20" t="n">
-        <v>541.8200000000001</v>
+        <v>469.06</v>
       </c>
       <c r="E20" t="n">
-        <v>30</v>
+        <v>1.704</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>394.38</v>
+        <v>469.06</v>
       </c>
       <c r="D21" t="n">
-        <v>462.38</v>
+        <v>566.95</v>
       </c>
       <c r="E21" t="n">
-        <v>2.312</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>541.8200000000001</v>
+        <v>591.33</v>
       </c>
       <c r="D22" t="n">
-        <v>593.38</v>
+        <v>655.97</v>
       </c>
       <c r="E22" t="n">
-        <v>27.024</v>
+        <v>23.432</v>
       </c>
     </row>
     <row r="23">
@@ -865,41 +865,41 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>342.9</v>
+        <v>395.6</v>
       </c>
       <c r="D23" t="n">
-        <v>407.56</v>
+        <v>451.84</v>
       </c>
       <c r="E23" t="n">
-        <v>6.584</v>
+        <v>5.536</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>547.79</v>
+        <v>349.6</v>
       </c>
       <c r="D24" t="n">
-        <v>630.53</v>
+        <v>410.08</v>
       </c>
       <c r="E24" t="n">
-        <v>22.676</v>
+        <v>3.912</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -907,241 +907,241 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>407.56</v>
+        <v>417.06</v>
       </c>
       <c r="D25" t="n">
-        <v>451.62</v>
+        <v>476.22</v>
       </c>
       <c r="E25" t="n">
-        <v>3.308</v>
+        <v>2.808</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>269.6</v>
+        <v>410.08</v>
       </c>
       <c r="D26" t="n">
-        <v>344.6</v>
+        <v>467.9</v>
       </c>
       <c r="E26" t="n">
-        <v>13.16</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>344.6</v>
+        <v>467.9</v>
       </c>
       <c r="D27" t="n">
-        <v>410.28</v>
+        <v>538.3200000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>10.192</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>410.28</v>
+        <v>291.9</v>
       </c>
       <c r="D28" t="n">
-        <v>463.42</v>
+        <v>352.32</v>
       </c>
       <c r="E28" t="n">
-        <v>7.488</v>
+        <v>7.228</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>462.38</v>
+        <v>566.95</v>
       </c>
       <c r="D29" t="n">
-        <v>539.66</v>
+        <v>623.23</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>27.032</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>539.66</v>
+        <v>352.32</v>
       </c>
       <c r="D30" t="n">
-        <v>588.28</v>
+        <v>396.6</v>
       </c>
       <c r="E30" t="n">
-        <v>26.828</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>593.38</v>
+        <v>396.6</v>
       </c>
       <c r="D31" t="n">
-        <v>641.08</v>
+        <v>444.94</v>
       </c>
       <c r="E31" t="n">
-        <v>23.384</v>
+        <v>1.716</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>451.62</v>
+        <v>444.94</v>
       </c>
       <c r="D32" t="n">
-        <v>502.7</v>
+        <v>542.8099999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>502.7</v>
+        <v>538.3200000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>578</v>
+        <v>576.28</v>
       </c>
       <c r="E33" t="n">
-        <v>30</v>
+        <v>27.404</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>463.42</v>
+        <v>451.84</v>
       </c>
       <c r="D34" t="n">
-        <v>513.48</v>
+        <v>519.4400000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>5.112</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>359.86</v>
+        <v>519.4400000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>405.82</v>
+        <v>594.61</v>
       </c>
       <c r="E35" t="n">
-        <v>2.508</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>630.53</v>
+        <v>476.22</v>
       </c>
       <c r="D36" t="n">
-        <v>674.91</v>
+        <v>527.3</v>
       </c>
       <c r="E36" t="n">
-        <v>19.868</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>578</v>
+        <v>527.3</v>
       </c>
       <c r="D37" t="n">
-        <v>638.34</v>
+        <v>603.6</v>
       </c>
       <c r="E37" t="n">
-        <v>26.136</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
@@ -1150,55 +1150,55 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>638.34</v>
+        <v>594.61</v>
       </c>
       <c r="D38" t="n">
-        <v>700.24</v>
+        <v>659.77</v>
       </c>
       <c r="E38" t="n">
-        <v>23.056</v>
+        <v>27.624</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>513.48</v>
+        <v>576.28</v>
       </c>
       <c r="D39" t="n">
-        <v>576.08</v>
+        <v>636.9400000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>2.472</v>
+        <v>24.428</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>405.82</v>
+        <v>659.77</v>
       </c>
       <c r="D40" t="n">
-        <v>451.22</v>
+        <v>721.97</v>
       </c>
       <c r="E40" t="n">
-        <v>0.08799999999999999</v>
+        <v>24.544</v>
       </c>
     </row>
     <row r="41">
@@ -1207,55 +1207,55 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>451.22</v>
+        <v>542.8099999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>552.34</v>
+        <v>595.6900000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>30</v>
+        <v>26.392</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>641.08</v>
+        <v>603.6</v>
       </c>
       <c r="D42" t="n">
-        <v>722.04</v>
+        <v>682.3</v>
       </c>
       <c r="E42" t="n">
-        <v>19.408</v>
+        <v>27.76</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>552.34</v>
+        <v>623.23</v>
       </c>
       <c r="D43" t="n">
-        <v>596.54</v>
+        <v>669.37</v>
       </c>
       <c r="E43" t="n">
-        <v>26.28</v>
+        <v>23.548</v>
       </c>
     </row>
   </sheetData>
